--- a/docs/StructureDefinition-VAInpatientIVMedication.xlsx
+++ b/docs/StructureDefinition-VAInpatientIVMedication.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="247">
   <si>
     <t>Path</t>
   </si>
@@ -322,21 +322,21 @@
     <t>Medication.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -345,17 +345,10 @@
     <t>Medication.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -553,9 +546,6 @@
     <t>Medication.ingredient.extension</t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -600,7 +590,14 @@
     <t>Medication.ingredient.item[x].extension</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1920,7 +1917,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1939,15 +1936,17 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -1984,14 +1983,16 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>101</v>
@@ -2015,7 +2016,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>41</v>
@@ -2030,7 +2031,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2049,16 +2050,16 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2108,7 +2109,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2140,7 +2141,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2163,16 +2164,16 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2198,14 +2199,14 @@
         <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="Z11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2240,21 +2241,21 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2280,13 +2281,13 @@
         <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2312,14 +2313,14 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2357,7 +2358,7 @@
         <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>41</v>
@@ -2368,7 +2369,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2391,13 +2392,13 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2448,7 +2449,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2466,13 +2467,13 @@
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -2480,7 +2481,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2503,13 +2504,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2560,7 +2561,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2581,10 +2582,10 @@
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2592,7 +2593,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2615,13 +2616,13 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2672,7 +2673,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2690,21 +2691,21 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2727,16 +2728,16 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2762,13 +2763,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -2786,7 +2787,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2804,21 +2805,21 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2841,16 +2842,16 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2900,7 +2901,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -2912,7 +2913,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>41</v>
@@ -2921,7 +2922,7 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -2932,7 +2933,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2955,13 +2956,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3012,7 +3013,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3033,7 +3034,7 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3044,11 +3045,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3067,16 +3068,16 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3126,7 +3127,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3147,7 +3148,7 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3158,11 +3159,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3181,16 +3182,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3240,7 +3241,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3272,7 +3273,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3295,13 +3296,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3352,7 +3353,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -3370,21 +3371,21 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3407,13 +3408,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3464,7 +3465,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3485,7 +3486,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -3496,11 +3497,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3519,16 +3520,16 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3566,16 +3567,16 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
@@ -3595,7 +3596,7 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -3606,7 +3607,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3629,17 +3630,17 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3688,7 +3689,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3709,7 +3710,7 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -3720,14 +3721,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>42</v>
@@ -3745,13 +3746,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3802,7 +3803,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3817,24 +3818,24 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3857,13 +3858,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3914,7 +3915,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3926,16 +3927,16 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -3946,7 +3947,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3969,13 +3970,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4026,7 +4027,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4047,7 +4048,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4058,11 +4059,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4081,16 +4082,16 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4140,7 +4141,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4161,7 +4162,7 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4172,11 +4173,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4195,16 +4196,16 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4254,7 +4255,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4286,7 +4287,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4309,13 +4310,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4342,14 +4343,14 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4384,10 +4385,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4398,7 +4399,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4421,13 +4422,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4478,7 +4479,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4490,16 +4491,16 @@
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4510,7 +4511,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4533,13 +4534,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4590,7 +4591,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4611,7 +4612,7 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -4622,11 +4623,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4645,16 +4646,16 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4704,7 +4705,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4725,7 +4726,7 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -4736,11 +4737,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4759,16 +4760,16 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4818,7 +4819,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4850,7 +4851,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4873,13 +4874,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4930,7 +4931,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>51</v>
@@ -4948,10 +4949,10 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -4962,7 +4963,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4985,13 +4986,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5042,7 +5043,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5060,10 +5061,10 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5074,7 +5075,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5097,13 +5098,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5154,7 +5155,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5166,16 +5167,16 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5186,7 +5187,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5209,13 +5210,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5266,7 +5267,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5287,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -5298,11 +5299,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5321,16 +5322,16 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5380,7 +5381,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5401,7 +5402,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5412,11 +5413,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5435,16 +5436,16 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5494,7 +5495,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5526,7 +5527,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5549,13 +5550,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5606,7 +5607,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5624,21 +5625,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5661,13 +5662,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5718,7 +5719,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5736,21 +5737,21 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5773,17 +5774,17 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -5832,7 +5833,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -5853,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-VAInpatientIVMedication.xlsx
+++ b/docs/StructureDefinition-VAInpatientIVMedication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="268">
   <si>
     <t>Path</t>
   </si>
@@ -568,20 +568,26 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Substance|Medication)</t>
-  </si>
-  <si>
     <t>The product contained</t>
   </si>
   <si>
     <t>The actual ingredient - either a substance (simple ingredient) or another medication.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.player</t>
   </si>
   <si>
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>itemCodeableConcept</t>
   </si>
   <si>
     <t>Medication.ingredient.item[x].id</t>
@@ -598,6 +604,64 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].text</t>
+  </si>
+  <si>
+    <t>SOLUTION</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>This is the solution entered as part of the specified IV order.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @SOLUTION 55.11-.01</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -944,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -954,9 +1018,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.2265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.3828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -988,7 +1052,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="35.11328125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="38.5078125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="126.55078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.35546875" customWidth="true" bestFit="true"/>
@@ -3296,13 +3360,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3341,16 +3405,14 @@
         <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>172</v>
@@ -3374,26 +3436,28 @@
         <v>114</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3408,13 +3472,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3465,10 +3529,10 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>51</v>
@@ -3483,32 +3547,32 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
@@ -3520,17 +3584,15 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3567,22 +3629,26 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AE23" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3607,18 +3673,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -3630,18 +3696,18 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3677,25 +3743,25 @@
         <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
@@ -3710,7 +3776,7 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -3719,43 +3785,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="E25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -3803,13 +3871,13 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
@@ -3818,30 +3886,32 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL25" t="s" s="2">
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
@@ -3849,25 +3919,29 @@
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -3915,7 +3989,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3927,27 +4001,27 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3970,16 +4044,18 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4027,7 +4103,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4048,7 +4124,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4057,23 +4133,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="E28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4082,17 +4160,15 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4141,13 +4217,13 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4156,57 +4232,55 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>41</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4255,28 +4329,28 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4287,7 +4361,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4310,13 +4384,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4343,13 +4417,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4367,7 +4441,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4385,10 +4459,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4399,11 +4473,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4422,15 +4496,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4479,7 +4555,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4491,16 +4567,16 @@
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4511,38 +4587,40 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4591,13 +4669,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -4612,7 +4690,7 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -4623,18 +4701,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
@@ -4646,17 +4724,15 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -4681,13 +4757,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -4705,13 +4781,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -4723,10 +4799,10 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -4737,11 +4813,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4754,23 +4830,21 @@
         <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -4819,7 +4893,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4831,16 +4905,16 @@
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -4851,7 +4925,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4859,7 +4933,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -4874,13 +4948,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4931,10 +5005,10 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>51</v>
@@ -4949,10 +5023,10 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -4963,18 +5037,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -4986,15 +5060,17 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5043,13 +5119,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5061,10 +5137,10 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5075,11 +5151,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5092,21 +5168,23 @@
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5155,7 +5233,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5167,16 +5245,16 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5187,7 +5265,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5195,7 +5273,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -5210,13 +5288,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5267,10 +5345,10 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -5285,10 +5363,10 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -5299,18 +5377,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5322,17 +5400,15 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5381,13 +5457,13 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
@@ -5399,10 +5475,10 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5413,11 +5489,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5430,23 +5506,21 @@
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5495,7 +5569,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5507,16 +5581,16 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -5527,7 +5601,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5553,10 +5627,10 @@
         <v>160</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5607,7 +5681,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5625,32 +5699,32 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -5662,15 +5736,17 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -5719,13 +5795,13 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
@@ -5737,25 +5813,25 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5768,24 +5844,24 @@
         <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
@@ -5833,7 +5909,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -5854,17 +5930,355 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN43">
+  <autoFilter ref="A1:AN46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5874,7 +6288,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI42">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
